--- a/文档/WCS问题列表.xlsx
+++ b/文档/WCS问题列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12735"/>
+    <workbookView windowWidth="24495" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="AGV" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>序号</t>
   </si>
@@ -58,10 +58,7 @@
     <t>3级</t>
   </si>
   <si>
-    <t>胡琳娜</t>
-  </si>
-  <si>
-    <t>彭威、程芳活</t>
+    <t>彭威</t>
   </si>
   <si>
     <t>车辆界面：当前设备未连接时，前进、后退按钮依然可操作</t>
@@ -88,7 +85,25 @@
     <t>1级</t>
   </si>
   <si>
-    <t>吕超</t>
+    <t>程芳活</t>
+  </si>
+  <si>
+    <t>车辆界面：当选择设备ID后，未选择指令类型，点击发送按钮，程序直接强制关闭</t>
+  </si>
+  <si>
+    <t>未做非空判断，如果不选指令类型、不填参数都会导致发送逻辑报错，软件强制关闭</t>
+  </si>
+  <si>
+    <t>增加非空判断，提示用户如果不选指令类型、不填指令参数，不能执行发送逻辑</t>
+  </si>
+  <si>
+    <t>优化</t>
+  </si>
+  <si>
+    <t>车辆界面：当设备连接状态为false时，发送按钮依然可点击</t>
+  </si>
+  <si>
+    <t>车辆界面的发送按钮，默认灰色，只有当选中在线的AGV设备时，才激活可操作按钮</t>
   </si>
   <si>
     <t>功能优化</t>
@@ -264,9 +279,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -278,22 +293,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,9 +328,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,44 +378,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,6 +397,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -399,25 +412,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -448,187 +463,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,6 +672,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -674,39 +722,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,22 +755,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,10 +777,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -774,133 +789,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1329,7 +1344,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1371,7 +1386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="81" spans="1:8">
+    <row r="2" s="2" customFormat="1" ht="81" spans="1:7">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1393,11 +1408,8 @@
       <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="27" spans="1:8">
+    </row>
+    <row r="3" s="2" customFormat="1" ht="27" spans="1:7">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1405,25 +1417,22 @@
         <v>8</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:8">
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:7">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1431,41 +1440,62 @@
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="10" t="s">
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" spans="1:7">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="27" spans="1:7">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
       <c r="A7" s="6"/>
@@ -1505,17 +1535,17 @@
     </row>
     <row r="11" customFormat="1" hidden="1" spans="2:8">
       <c r="B11" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H11" s="14"/>
     </row>
@@ -1524,20 +1554,20 @@
         <v>6</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="18">
         <v>2</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="27" hidden="1" spans="1:8">
@@ -1545,20 +1575,20 @@
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="21">
         <v>2</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="1" hidden="1" spans="1:8">
@@ -1566,10 +1596,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F14" s="21">
         <v>2</v>
@@ -1580,22 +1610,22 @@
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
       <c r="H15" s="14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" customFormat="1" hidden="1" spans="1:8">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -1607,20 +1637,20 @@
         <v>15</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="25" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="40.5" hidden="1" spans="1:8">
@@ -1628,13 +1658,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="21">
@@ -1647,13 +1677,13 @@
         <v>22</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="21">
@@ -1667,15 +1697,15 @@
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="28" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
       <c r="F20" s="25" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="67.5" hidden="1" spans="1:8">
@@ -1683,16 +1713,16 @@
         <v>32</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F21" s="21">
         <v>2</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="40.5" hidden="1" spans="1:8">
@@ -1700,10 +1730,10 @@
         <v>34</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D22" s="27">
         <v>1</v>
@@ -1712,7 +1742,7 @@
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="26" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="27" hidden="1" spans="1:8">
@@ -1720,10 +1750,10 @@
         <v>35</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D23" s="21">
         <v>1</v>
@@ -1732,7 +1762,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="40.5" hidden="1" spans="1:8">
@@ -1740,10 +1770,10 @@
         <v>36</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D24" s="21">
         <v>1</v>
@@ -1752,7 +1782,7 @@
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="H24" s="14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" ht="27" hidden="1" spans="1:8">
@@ -1760,10 +1790,10 @@
         <v>40</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D25" s="27">
         <v>1</v>
@@ -1772,7 +1802,7 @@
       <c r="F25" s="27"/>
       <c r="G25" s="30"/>
       <c r="H25" s="26" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" ht="40.5" hidden="1" spans="1:8">
@@ -1780,10 +1810,10 @@
         <v>41</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D26" s="27">
         <v>2</v>
@@ -1792,7 +1822,7 @@
       <c r="F26" s="27"/>
       <c r="G26" s="30"/>
       <c r="H26" s="26" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" hidden="1" spans="1:8">
@@ -1800,10 +1830,10 @@
         <v>42</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D27" s="27">
         <v>1</v>
@@ -1812,7 +1842,7 @@
       <c r="F27" s="27"/>
       <c r="G27" s="30"/>
       <c r="H27" s="26" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" ht="27" hidden="1" spans="1:8">
@@ -1820,10 +1850,10 @@
         <v>43</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D28" s="27">
         <v>2</v>
@@ -1832,7 +1862,7 @@
       <c r="F28" s="27"/>
       <c r="G28" s="30"/>
       <c r="H28" s="26" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" customFormat="1" hidden="1" spans="1:6">
@@ -1840,10 +1870,10 @@
         <v>45</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F29" s="21"/>
     </row>
@@ -1852,10 +1882,10 @@
         <v>46</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F30" s="21"/>
     </row>
@@ -1864,16 +1894,16 @@
         <v>47</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="40.5" hidden="1" spans="1:8">
@@ -1881,19 +1911,19 @@
         <v>48</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
       <c r="F32" s="21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G32" s="31"/>
       <c r="H32" s="31" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" customFormat="1" hidden="1" spans="1:8">
@@ -1901,17 +1931,17 @@
         <v>49</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="18"/>
       <c r="G33" s="33"/>
       <c r="H33" s="33" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="27" hidden="1" spans="1:6">
@@ -1920,7 +1950,7 @@
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="31" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F34" s="21"/>
     </row>
@@ -1929,10 +1959,10 @@
         <v>10</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -1941,7 +1971,7 @@
       </c>
       <c r="G35" s="22"/>
       <c r="H35" s="27" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="54" hidden="1" spans="1:8">
@@ -1949,19 +1979,19 @@
         <v>18</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="27" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/文档/WCS问题列表.xlsx
+++ b/文档/WCS问题列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24495" windowHeight="8970"/>
+    <workbookView windowWidth="28695" windowHeight="12735"/>
   </bookViews>
   <sheets>
     <sheet name="AGV" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>序号</t>
   </si>
@@ -40,7 +40,7 @@
     <t>指派</t>
   </si>
   <si>
-    <t>协助</t>
+    <t>测试</t>
   </si>
   <si>
     <t>Bug</t>
@@ -61,6 +61,9 @@
     <t>彭威</t>
   </si>
   <si>
+    <t>通过</t>
+  </si>
+  <si>
     <t>车辆界面：当前设备未连接时，前进、后退按钮依然可操作</t>
   </si>
   <si>
@@ -85,7 +88,7 @@
     <t>1级</t>
   </si>
   <si>
-    <t>程芳活</t>
+    <t>吕超</t>
   </si>
   <si>
     <t>车辆界面：当选择设备ID后，未选择指令类型，点击发送按钮，程序直接强制关闭</t>
@@ -106,6 +109,15 @@
     <t>车辆界面的发送按钮，默认灰色，只有当选中在线的AGV设备时，才激活可操作按钮</t>
   </si>
   <si>
+    <t>车辆界面：增加显示AGV的：状态、地标、站点、速度、运行方向、驱动类型、电量、充电状态、空闲</t>
+  </si>
+  <si>
+    <t>按需求修改</t>
+  </si>
+  <si>
+    <t>胡琳娜</t>
+  </si>
+  <si>
     <t>功能优化</t>
   </si>
   <si>
@@ -122,9 +134,6 @@
   </si>
   <si>
     <t>陈伟钊：料箱管理模块打印托盘，这个能限制权限吗？这里食品仓，大仓和其他仓库通用，托盘操作会产生误删。把其他仓库的托盘都删了。</t>
-  </si>
-  <si>
-    <t>增加仓库过滤，0202前</t>
   </si>
   <si>
     <t>即时回库流程优化</t>
@@ -134,9 +143,6 @@
 ③未出库单据回库流程复杂</t>
   </si>
   <si>
-    <t>0122会议讨论</t>
-  </si>
-  <si>
     <t>SKU仓库策略配置的优化-品牌管理</t>
   </si>
   <si>
@@ -146,11 +152,6 @@
     <t>整件复核：要支持勾选单条复核；而不是限制全部勾选复核；</t>
   </si>
   <si>
-    <t>方案一：多次复核，多次发货。
-方案二：记录已勾选的细目。
-待定</t>
-  </si>
-  <si>
     <t>复核/发货界面增加调度单切换作业</t>
   </si>
   <si>
@@ -166,9 +167,6 @@
     <t>done</t>
   </si>
   <si>
-    <t>已完成，待测试</t>
-  </si>
-  <si>
     <t>流程设计</t>
   </si>
   <si>
@@ -190,10 +188,6 @@
     <t>备货复核需要支持双人复核；</t>
   </si>
   <si>
-    <t>建议一人使用PDA，另一人使用蓝单，可同时检验蓝单与PDA数据是否一致
-需咨询仓管员</t>
-  </si>
-  <si>
     <t>WMS</t>
   </si>
   <si>
@@ -203,15 +197,9 @@
     <t>勾兑入库箱数转换，需要列明来货总箱数，点进勾单明细界面也需要列明箱数。保存界面</t>
   </si>
   <si>
-    <t>版本日期：2018-1-25</t>
-  </si>
-  <si>
     <t>这份单第一行分录是备货复核状态，其他都已经是发货状态，现在想把第一行发货，无法勾选。</t>
   </si>
   <si>
-    <t>曹瑶池：2018-1-19交付方案</t>
-  </si>
-  <si>
     <t>BUG</t>
   </si>
   <si>
@@ -227,9 +215,6 @@
     <t>叉车入库确认成功后依然显示任务存在</t>
   </si>
   <si>
-    <t>是李经理要求的</t>
-  </si>
-  <si>
     <t>入库单接口增加字段，返回卸车通知单的预收货条码给EAS</t>
   </si>
   <si>
@@ -245,19 +230,10 @@
     <t>关闭</t>
   </si>
   <si>
-    <t>WMS不生成批号，批号是由EAS生成，再传过来的</t>
-  </si>
-  <si>
     <t>删除某张出库单，再重做一张时，会生成与原出库单一样的单号，导致在出库确认界面无法确认</t>
   </si>
   <si>
-    <t>EAS删单后，新生成的单号与已删单号一样，WMS无法分辨</t>
-  </si>
-  <si>
     <t>一个汇总拣选单号对应两个调度单号</t>
-  </si>
-  <si>
-    <t>检测中</t>
   </si>
   <si>
     <t>回库单、调拨单、委外单要求自动生成卸货通知单</t>
@@ -279,9 +255,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -293,14 +269,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,6 +298,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -335,8 +327,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,25 +342,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,21 +373,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -435,8 +396,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,193 +433,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,39 +654,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -722,10 +671,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -733,9 +680,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,6 +704,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -769,6 +736,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -777,10 +759,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,16 +771,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -807,13 +789,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -825,101 +807,101 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -932,7 +914,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -956,68 +941,68 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1344,655 +1329,623 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.3833333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.3833333333333" style="6" customWidth="1"/>
     <col min="3" max="3" width="38.25" style="1" customWidth="1"/>
     <col min="4" max="5" width="42.6333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.4916666666667" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.4916666666667" style="6" customWidth="1"/>
     <col min="7" max="7" width="13.075" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6333333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6333333333333" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="17.6333333333333" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="81" spans="1:7">
-      <c r="A2" s="8">
+    <row r="2" s="2" customFormat="1" ht="81" spans="1:8">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="27" spans="1:7">
-      <c r="A3" s="8">
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="27" spans="1:8">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="8" t="s">
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:7">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" spans="1:8">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="27" spans="1:8">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="E6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:7">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="27" spans="1:7">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="27" spans="1:7">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="40.5" spans="1:7">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
+      <c r="C7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:7">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" customFormat="1" hidden="1" spans="2:8">
-      <c r="B11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" customFormat="1" ht="40.5" hidden="1" spans="1:8">
-      <c r="A12" s="15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" customFormat="1" hidden="1" spans="2:6">
+      <c r="B11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="40.5" hidden="1" spans="1:6">
+      <c r="A12" s="17">
         <v>6</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18">
+      <c r="C12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20">
         <v>2</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="27" hidden="1" spans="1:8">
+    </row>
+    <row r="13" customFormat="1" ht="27" hidden="1" spans="1:6">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="21">
+      <c r="B13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="22">
         <v>2</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" hidden="1" spans="1:8">
+    </row>
+    <row r="14" customFormat="1" hidden="1" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="21">
+      <c r="B14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="22">
         <v>2</v>
       </c>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" customFormat="1" ht="67.5" hidden="1" spans="1:8">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="H15" s="14" t="s">
+    </row>
+    <row r="15" customFormat="1" ht="27" hidden="1" spans="1:6">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" customFormat="1" hidden="1" spans="1:8">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17" t="s">
+      <c r="D15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" customFormat="1" hidden="1" spans="1:8">
-      <c r="A17" s="22">
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" customFormat="1" hidden="1" spans="1:6">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" customFormat="1" hidden="1" spans="1:6">
+      <c r="A17" s="23">
         <v>15</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="C17" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25" t="s">
+      <c r="D17" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="40.5" hidden="1" spans="1:8">
+    <row r="18" customFormat="1" ht="40.5" hidden="1" spans="1:6">
       <c r="A18">
         <v>20</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="21">
+      <c r="E18" s="27"/>
+      <c r="F18" s="22">
         <v>2</v>
       </c>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" customFormat="1" hidden="1" spans="1:8">
+    </row>
+    <row r="19" customFormat="1" hidden="1" spans="1:6">
       <c r="A19">
         <v>22</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="21">
+      <c r="E19" s="16"/>
+      <c r="F19" s="22">
         <v>2</v>
       </c>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" customFormat="1" hidden="1" spans="1:8">
-      <c r="A20" s="22">
+    </row>
+    <row r="20" customFormat="1" hidden="1" spans="1:6">
+      <c r="A20" s="23">
         <v>29</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="25" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" hidden="1" spans="1:6">
+      <c r="A21" s="5">
         <v>32</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="B21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="40.5" hidden="1" spans="1:7">
+      <c r="A22" s="23">
+        <v>34</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="28">
+        <v>1</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" customFormat="1" ht="27" hidden="1" spans="1:7">
+      <c r="A23" s="5">
+        <v>35</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="22">
+        <v>1</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" customFormat="1" ht="40.5" hidden="1" spans="1:7">
+      <c r="A24" s="5">
+        <v>36</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="22">
+        <v>1</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" s="5" customFormat="1" ht="27" hidden="1" spans="1:7">
+      <c r="A25" s="23">
+        <v>40</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="28">
+        <v>1</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="32"/>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="40.5" hidden="1" spans="1:7">
+      <c r="A26" s="23">
+        <v>41</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="28">
+        <v>2</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="32"/>
+    </row>
+    <row r="27" s="5" customFormat="1" hidden="1" spans="1:7">
+      <c r="A27" s="23">
+        <v>42</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="28">
+        <v>1</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="32"/>
+    </row>
+    <row r="28" s="5" customFormat="1" ht="27" hidden="1" spans="1:7">
+      <c r="A28" s="23">
+        <v>43</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="28">
+        <v>2</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="32"/>
+    </row>
+    <row r="29" customFormat="1" hidden="1" spans="1:6">
+      <c r="A29" s="5">
+        <v>45</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" customFormat="1" ht="27" hidden="1" spans="1:6">
+      <c r="A30" s="5">
+        <v>46</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" customFormat="1" ht="40.5" hidden="1" spans="1:6">
+      <c r="A31" s="5">
+        <v>47</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" ht="40.5" hidden="1" spans="1:7">
+      <c r="A32" s="5">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" customFormat="1" ht="67.5" hidden="1" spans="1:8">
-      <c r="A21" s="4">
-        <v>32</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="21">
-        <v>2</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" ht="40.5" hidden="1" spans="1:8">
-      <c r="A22" s="22">
-        <v>34</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="27">
-        <v>1</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" ht="27" hidden="1" spans="1:8">
-      <c r="A23" s="4">
-        <v>35</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="21">
-        <v>1</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="14" t="s">
+      <c r="B32" s="22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" customFormat="1" ht="40.5" hidden="1" spans="1:8">
-      <c r="A24" s="4">
-        <v>36</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="21">
-        <v>1</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" s="4" customFormat="1" ht="27" hidden="1" spans="1:8">
-      <c r="A25" s="22">
-        <v>40</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="27">
-        <v>1</v>
-      </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" s="4" customFormat="1" ht="40.5" hidden="1" spans="1:8">
-      <c r="A26" s="22">
-        <v>41</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="27">
-        <v>2</v>
-      </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" s="4" customFormat="1" hidden="1" spans="1:8">
-      <c r="A27" s="22">
-        <v>42</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" s="4" customFormat="1" ht="27" hidden="1" spans="1:8">
-      <c r="A28" s="22">
-        <v>43</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="29" t="s">
+      <c r="C32" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="27">
-        <v>2</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" hidden="1" spans="1:6">
-      <c r="A29" s="4">
-        <v>45</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" customFormat="1" ht="27" hidden="1" spans="1:6">
-      <c r="A30" s="4">
-        <v>46</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="31" t="s">
+      <c r="G32" s="33"/>
+    </row>
+    <row r="33" customFormat="1" hidden="1" spans="1:7">
+      <c r="A33" s="17">
+        <v>49</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="21"/>
-    </row>
-    <row r="31" customFormat="1" ht="40.5" hidden="1" spans="1:8">
-      <c r="A31" s="4">
-        <v>47</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="31" t="s">
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="34"/>
+    </row>
+    <row r="34" customFormat="1" ht="27" hidden="1" spans="1:6">
+      <c r="A34" s="5">
+        <v>50</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" customFormat="1" ht="27" hidden="1" spans="1:7">
+      <c r="A35" s="23">
+        <v>10</v>
+      </c>
+      <c r="B35" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H31" s="32" t="s">
+      <c r="C35" s="30" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" customFormat="1" ht="40.5" hidden="1" spans="1:8">
-      <c r="A32" s="4">
-        <v>48</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="31" t="s">
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="23"/>
+    </row>
+    <row r="36" customFormat="1" ht="54" hidden="1" spans="1:7">
+      <c r="A36" s="23">
+        <v>18</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" hidden="1" spans="1:8">
-      <c r="A33" s="15">
-        <v>49</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" ht="27" hidden="1" spans="1:6">
-      <c r="A34" s="4">
-        <v>50</v>
-      </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" customFormat="1" ht="27" hidden="1" spans="1:8">
-      <c r="A35" s="22">
-        <v>10</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="22"/>
-      <c r="H35" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" ht="54" hidden="1" spans="1:8">
-      <c r="A36" s="22">
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="22"/>
-      <c r="H36" s="27" t="s">
-        <v>73</v>
-      </c>
+      <c r="G36" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G36">

--- a/文档/WCS问题列表.xlsx
+++ b/文档/WCS问题列表.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12735"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="AGV" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AGV!$A$1:$G$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AGV!$A$1:$G$37</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>序号</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>胡琳娜</t>
+  </si>
+  <si>
+    <t>车辆界面：获取AGV电量的值，使用的字段获取得到的值，与AGV电量的实时值不同</t>
+  </si>
+  <si>
+    <t>AGV小车在运行时，站点由0变成2，空闲由true变成false,是指任务执行到一半，未执行完成，还是什么意思？</t>
+  </si>
+  <si>
+    <t>任务界面：将定义的任务添加到执行任务中，任务的执行不会按照任务添加的先后顺序进行；且加入相同任务时，相同任务的信息显示一致，却只能执行一次</t>
+  </si>
+  <si>
+    <t>AGV小车执行任务，去到某一个站点时，小车的启动方向如何控制？且启动那一刻其运动方向能否修改？</t>
   </si>
   <si>
     <t>功能优化</t>
@@ -254,10 +266,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -269,7 +281,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,39 +289,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,9 +309,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,23 +337,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -373,6 +353,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -381,19 +384,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -404,15 +423,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,43 +445,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,151 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,6 +661,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -665,6 +686,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,39 +743,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -759,149 +765,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,10 +920,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -941,12 +944,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -998,10 +995,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1326,44 +1323,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.3833333333333" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.3833333333333" style="5" customWidth="1"/>
     <col min="3" max="3" width="38.25" style="1" customWidth="1"/>
     <col min="4" max="5" width="42.6333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.4916666666667" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.4916666666667" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.075" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.6333333333333" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1371,25 +1368,25 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="81" spans="1:8">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1397,25 +1394,25 @@
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="27" spans="1:8">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1423,48 +1420,48 @@
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:7">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="27" spans="1:8">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1472,483 +1469,512 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="27" spans="1:8">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="40.5" spans="1:7">
-      <c r="A7" s="13">
+    <row r="7" s="3" customFormat="1" ht="40.5" spans="1:7">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:7">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" customFormat="1" hidden="1" spans="2:6">
-      <c r="B11" s="15" t="s">
+    <row r="8" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="72" customHeight="1" spans="1:7">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="42" customHeight="1" spans="1:7">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" customFormat="1" ht="40.5" hidden="1" spans="1:6">
-      <c r="A12" s="17">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" customFormat="1" hidden="1" spans="2:6">
+      <c r="B12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="40.5" hidden="1" spans="1:6">
+      <c r="A13" s="14">
         <v>6</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="B13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20">
+      <c r="C13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="27" hidden="1" spans="1:6">
-      <c r="A13">
+    <row r="14" customFormat="1" ht="27" hidden="1" spans="1:6">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="16" t="s">
+      <c r="B14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" hidden="1" spans="1:6">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="27" hidden="1" spans="1:6">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" customFormat="1" hidden="1" spans="1:6">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" customFormat="1" hidden="1" spans="1:6">
+      <c r="A18" s="20">
+        <v>15</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="40.5" hidden="1" spans="1:6">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" hidden="1" spans="1:6">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" hidden="1" spans="1:6">
+      <c r="A21" s="20">
+        <v>29</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="22">
+    </row>
+    <row r="22" customFormat="1" hidden="1" spans="1:6">
+      <c r="A22" s="4">
+        <v>32</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="14" customFormat="1" hidden="1" spans="1:6">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="21" t="s">
+    <row r="23" customFormat="1" ht="40.5" hidden="1" spans="1:7">
+      <c r="A23" s="20">
+        <v>34</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="25">
+        <v>1</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" customFormat="1" ht="27" hidden="1" spans="1:7">
+      <c r="A24" s="4">
+        <v>35</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="19">
+        <v>1</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" customFormat="1" ht="40.5" hidden="1" spans="1:7">
+      <c r="A25" s="4">
+        <v>36</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" s="4" customFormat="1" ht="27" hidden="1" spans="1:7">
+      <c r="A26" s="20">
+        <v>40</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="25">
+        <v>1</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" s="4" customFormat="1" ht="40.5" hidden="1" spans="1:7">
+      <c r="A27" s="20">
         <v>41</v>
       </c>
-      <c r="F14" s="22">
+      <c r="B27" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" customFormat="1" ht="27" hidden="1" spans="1:6">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19" t="s">
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" s="4" customFormat="1" hidden="1" spans="1:7">
+      <c r="A28" s="20">
         <v>42</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="B28" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="25">
+        <v>1</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29" s="4" customFormat="1" ht="27" hidden="1" spans="1:7">
+      <c r="A29" s="20">
         <v>43</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" customFormat="1" hidden="1" spans="1:6">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" customFormat="1" hidden="1" spans="1:6">
-      <c r="A17" s="23">
-        <v>15</v>
-      </c>
-      <c r="B17" s="24" t="s">
+      <c r="B29" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="25">
+        <v>2</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="29"/>
+    </row>
+    <row r="30" customFormat="1" hidden="1" spans="1:6">
+      <c r="A30" s="4">
         <v>45</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="B30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" customFormat="1" ht="27" hidden="1" spans="1:6">
+      <c r="A31" s="4">
         <v>46</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="B31" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" customFormat="1" ht="40.5" hidden="1" spans="1:6">
+      <c r="A32" s="4">
         <v>47</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26" t="s">
+      <c r="B32" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" ht="40.5" hidden="1" spans="1:7">
+      <c r="A33" s="4">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" customFormat="1" ht="40.5" hidden="1" spans="1:6">
-      <c r="A18">
-        <v>20</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="B33" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="30"/>
+    </row>
+    <row r="34" customFormat="1" hidden="1" spans="1:7">
+      <c r="A34" s="14">
         <v>49</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="B34" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="31"/>
+    </row>
+    <row r="35" customFormat="1" ht="27" hidden="1" spans="1:6">
+      <c r="A35" s="4">
         <v>50</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" hidden="1" spans="1:6">
-      <c r="A19">
-        <v>22</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" hidden="1" spans="1:6">
-      <c r="A20" s="23">
-        <v>29</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" hidden="1" spans="1:6">
-      <c r="A21" s="5">
-        <v>32</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" ht="40.5" hidden="1" spans="1:7">
-      <c r="A22" s="23">
-        <v>34</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="28">
-        <v>1</v>
-      </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-    </row>
-    <row r="23" customFormat="1" ht="27" hidden="1" spans="1:7">
-      <c r="A23" s="5">
-        <v>35</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="22">
-        <v>1</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" customFormat="1" ht="40.5" hidden="1" spans="1:7">
-      <c r="A24" s="5">
-        <v>36</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="22">
-        <v>1</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" s="5" customFormat="1" ht="27" hidden="1" spans="1:7">
-      <c r="A25" s="23">
-        <v>40</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="28">
-        <v>1</v>
-      </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="26" s="5" customFormat="1" ht="40.5" hidden="1" spans="1:7">
-      <c r="A26" s="23">
-        <v>41</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="28">
-        <v>2</v>
-      </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="32"/>
-    </row>
-    <row r="27" s="5" customFormat="1" hidden="1" spans="1:7">
-      <c r="A27" s="23">
-        <v>42</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="30" t="s">
+      <c r="B35" s="19"/>
+      <c r="C35" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" customFormat="1" ht="27" hidden="1" spans="1:7">
+      <c r="A36" s="20">
+        <v>10</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" customFormat="1" ht="54" hidden="1" spans="1:7">
+      <c r="A37" s="20">
+        <v>18</v>
+      </c>
+      <c r="B37" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="28">
-        <v>1</v>
-      </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="32"/>
-    </row>
-    <row r="28" s="5" customFormat="1" ht="27" hidden="1" spans="1:7">
-      <c r="A28" s="23">
-        <v>43</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="28">
-        <v>2</v>
-      </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="32"/>
-    </row>
-    <row r="29" customFormat="1" hidden="1" spans="1:6">
-      <c r="A29" s="5">
-        <v>45</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="22"/>
-    </row>
-    <row r="30" customFormat="1" ht="27" hidden="1" spans="1:6">
-      <c r="A30" s="5">
-        <v>46</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="22"/>
-    </row>
-    <row r="31" customFormat="1" ht="40.5" hidden="1" spans="1:6">
-      <c r="A31" s="5">
-        <v>47</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" ht="40.5" hidden="1" spans="1:7">
-      <c r="A32" s="5">
-        <v>48</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="33"/>
-    </row>
-    <row r="33" customFormat="1" hidden="1" spans="1:7">
-      <c r="A33" s="17">
-        <v>49</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="34"/>
-    </row>
-    <row r="34" customFormat="1" ht="27" hidden="1" spans="1:6">
-      <c r="A34" s="5">
-        <v>50</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" customFormat="1" ht="27" hidden="1" spans="1:7">
-      <c r="A35" s="23">
-        <v>10</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="23"/>
-    </row>
-    <row r="36" customFormat="1" ht="54" hidden="1" spans="1:7">
-      <c r="A36" s="23">
+      <c r="C37" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="23"/>
+      <c r="G37" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G36">
+  <autoFilter ref="A1:G37">
     <filterColumn colId="5">
       <customFilters>
         <customFilter operator="equal" val="1"/>
@@ -1960,19 +1986,19 @@
     <sortCondition ref="B2:B27"/>
   </sortState>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
       <formula1>"BUG,功能优化,界面优化,需求变更,设计缺陷,性能优化,新需求"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B22:B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28 B23:B25">
       <formula1>"WMS,PDA,车载电脑"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36 B37">
       <formula1>"BUG,新需求,需求变更,功能不符"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F35 F36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F36 F37">
       <formula1>"1级,2级,3级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:D28 E22:E28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23:D29 E23:E29">
       <formula1>"1,2,3,"</formula1>
     </dataValidation>
   </dataValidations>

--- a/文档/WCS问题列表.xlsx
+++ b/文档/WCS问题列表.xlsx
@@ -10,14 +10,14 @@
     <sheet name="AGV" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AGV!$A$1:$G$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AGV!$A$1:$G$40</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <t>序号</t>
   </si>
@@ -121,13 +121,32 @@
     <t>车辆界面：获取AGV电量的值，使用的字段获取得到的值，与AGV电量的实时值不同</t>
   </si>
   <si>
+    <t>(已解决）</t>
+  </si>
+  <si>
     <t>AGV小车在运行时，站点由0变成2，空闲由true变成false,是指任务执行到一半，未执行完成，还是什么意思？</t>
   </si>
   <si>
+    <t>（出现过一次）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当任务正在执行时，车辆界面的停止按钮，无法操作。
+</t>
+  </si>
+  <si>
     <t>任务界面：将定义的任务添加到执行任务中，任务的执行不会按照任务添加的先后顺序进行；且加入相同任务时，相同任务的信息显示一致，却只能执行一次</t>
   </si>
   <si>
+    <t>（已解决，能实现任务的循环）</t>
+  </si>
+  <si>
     <t>AGV小车执行任务，去到某一个站点时，小车的启动方向如何控制？且启动那一刻其运动方向能否修改？</t>
+  </si>
+  <si>
+    <t>（已解决）</t>
+  </si>
+  <si>
+    <t>在路径定义中，添加目标地标的路径节点的X轴坐标。1表示前进、2表示后退</t>
   </si>
   <si>
     <t>功能优化</t>
@@ -259,6 +278,45 @@
   <si>
     <t>在进行预约时，预约日期什么日期都能选。
    应改为：只可以看到能选的那几个日期。比如：设置为可以约7天，就只能看到接下来的7天。</t>
+  </si>
+  <si>
+    <t>任务界面：增加自动清除按钮，改变自动清除的状态（True 变成  False)</t>
+  </si>
+  <si>
+    <t>MAP：增加地图，AGV小车能够根据地图自动判断从一个点到另一个点的路径</t>
+  </si>
+  <si>
+    <t>车辆界面：添加辊台动作，给辊台发送指令，能实现辊台上料：正转、反转、停止；辊台下料：正转、反转、停止</t>
+  </si>
+  <si>
+    <t>在指令类型下拉框中添加了辊台选项，指令参数框中发送相应的指令即可。</t>
+  </si>
+  <si>
+    <t>充电AGV，只有当其空闲状态变成True时，才能回到待命点</t>
+  </si>
+  <si>
+    <t>#.0003 ==0 &amp;&amp; #.0008 ==0(未充电状态）</t>
+  </si>
+  <si>
+    <t>增加“磁条状态”字段，当小车在磁条内且空闲状态为True时，才可调度该AGV</t>
+  </si>
+  <si>
+    <t>有异常的车辆，将其在线状态变成离线状态</t>
+  </si>
+  <si>
+    <t>（给出解决方案，但是车间人员不太能实现？？）</t>
+  </si>
+  <si>
+    <t>将异常车辆所处的地标=0，AGV的空闲状态为False</t>
+  </si>
+  <si>
+    <t>当AGV小车正在执行任务，突然掉线</t>
+  </si>
+  <si>
+    <t>1.货物急：派发给其他AGV去执行                2.货物不急：等掉线的AGV重新上线，继续执行为完成的任务</t>
+  </si>
+  <si>
+    <t>线边滚筒的电机状态和货物状态字段存在问题， 当辊台停止时，字段的值为1，实际值为3</t>
   </si>
 </sst>
 </file>
@@ -275,6 +333,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -353,32 +426,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,10 +823,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -777,58 +835,58 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -840,70 +898,70 @@
     <xf numFmtId="0" fontId="19" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1323,10 +1381,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1525,7 +1583,9 @@
       <c r="C8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
       <c r="G8" s="6"/>
@@ -1538,251 +1598,259 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="72" customHeight="1" spans="1:7">
+    <row r="10" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C10" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="42" customHeight="1" spans="1:7">
+    <row r="11" s="1" customFormat="1" ht="72" customHeight="1" spans="1:7">
       <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" customFormat="1" hidden="1" spans="2:6">
-      <c r="B12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12" t="s">
+    <row r="12" s="1" customFormat="1" ht="42" customHeight="1" spans="1:7">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" customFormat="1" ht="40.5" hidden="1" spans="1:6">
-      <c r="A13" s="14">
+      <c r="D12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" customFormat="1" hidden="1" spans="2:6">
+      <c r="B13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="40.5" hidden="1" spans="1:6">
+      <c r="A14" s="14">
         <v>6</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17">
+      <c r="B14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="27" hidden="1" spans="1:6">
-      <c r="A14">
+    <row r="15" customFormat="1" ht="27" hidden="1" spans="1:6">
+      <c r="A15">
         <v>10</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="18" t="s">
+      <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" hidden="1" spans="1:6">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="C15" s="18" t="s">
-        <v>45</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="13"/>
       <c r="F15" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="27" hidden="1" spans="1:6">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" customFormat="1" hidden="1" spans="1:6">
+    <row r="16" customFormat="1" hidden="1" spans="1:6">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="27" hidden="1" spans="1:6">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="16"/>
+        <v>52</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="E17" s="16"/>
       <c r="F17" s="17"/>
     </row>
     <row r="18" customFormat="1" hidden="1" spans="1:6">
-      <c r="A18" s="20">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" customFormat="1" hidden="1" spans="1:6">
+      <c r="A19" s="20">
         <v>15</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" ht="40.5" hidden="1" spans="1:6">
-      <c r="A19">
+      <c r="B19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="40.5" hidden="1" spans="1:6">
+      <c r="A20">
         <v>20</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" hidden="1" spans="1:6">
-      <c r="A20">
-        <v>22</v>
-      </c>
       <c r="B20" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="24"/>
       <c r="F20" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="1" hidden="1" spans="1:6">
-      <c r="A21" s="20">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" hidden="1" spans="1:6">
+      <c r="A22" s="20">
         <v>29</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" hidden="1" spans="1:6">
-      <c r="A22" s="4">
+      <c r="B22" s="25"/>
+      <c r="C22" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" hidden="1" spans="1:6">
+      <c r="A23" s="4">
         <v>32</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="19">
+      <c r="B23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="40.5" hidden="1" spans="1:7">
-      <c r="A23" s="20">
+    <row r="24" customFormat="1" ht="40.5" hidden="1" spans="1:7">
+      <c r="A24" s="20">
         <v>34</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="25">
+      <c r="B24" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="25">
         <v>1</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" customFormat="1" ht="27" hidden="1" spans="1:7">
-      <c r="A24" s="4">
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" customFormat="1" ht="27" hidden="1" spans="1:7">
+      <c r="A25" s="4">
         <v>35</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="19">
-        <v>1</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" customFormat="1" ht="40.5" hidden="1" spans="1:7">
-      <c r="A25" s="4">
-        <v>36</v>
-      </c>
       <c r="B25" s="19" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D25" s="19">
         <v>1</v>
@@ -1791,190 +1859,316 @@
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
     </row>
-    <row r="26" s="4" customFormat="1" ht="27" hidden="1" spans="1:7">
-      <c r="A26" s="20">
+    <row r="26" customFormat="1" ht="40.5" hidden="1" spans="1:7">
+      <c r="A26" s="4">
+        <v>36</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="19">
+        <v>1</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" s="4" customFormat="1" ht="27" hidden="1" spans="1:7">
+      <c r="A27" s="20">
         <v>40</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="25">
+      <c r="B27" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="25">
         <v>1</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="29"/>
-    </row>
-    <row r="27" s="4" customFormat="1" ht="40.5" hidden="1" spans="1:7">
-      <c r="A27" s="20">
-        <v>41</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="25">
-        <v>2</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="29"/>
     </row>
-    <row r="28" s="4" customFormat="1" hidden="1" spans="1:7">
+    <row r="28" s="4" customFormat="1" ht="40.5" hidden="1" spans="1:7">
       <c r="A28" s="20">
-        <v>42</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D28" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="29"/>
     </row>
-    <row r="29" s="4" customFormat="1" ht="27" hidden="1" spans="1:7">
+    <row r="29" s="4" customFormat="1" hidden="1" spans="1:7">
       <c r="A29" s="20">
-        <v>43</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D29" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
       <c r="G29" s="29"/>
     </row>
-    <row r="30" customFormat="1" hidden="1" spans="1:6">
-      <c r="A30" s="4">
+    <row r="30" s="4" customFormat="1" ht="27" hidden="1" spans="1:7">
+      <c r="A30" s="20">
+        <v>43</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="25">
+        <v>2</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="29"/>
+    </row>
+    <row r="31" customFormat="1" hidden="1" spans="1:6">
+      <c r="A31" s="4">
         <v>45</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" customFormat="1" ht="27" hidden="1" spans="1:6">
+      <c r="A32" s="4">
+        <v>46</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" customFormat="1" ht="40.5" hidden="1" spans="1:6">
+      <c r="A33" s="4">
+        <v>47</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" customFormat="1" ht="27" hidden="1" spans="1:6">
-      <c r="A31" s="4">
-        <v>46</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="19"/>
-    </row>
-    <row r="32" customFormat="1" ht="40.5" hidden="1" spans="1:6">
-      <c r="A32" s="4">
-        <v>47</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" ht="40.5" hidden="1" spans="1:7">
-      <c r="A33" s="4">
+      <c r="C33" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" ht="40.5" hidden="1" spans="1:7">
+      <c r="A34" s="4">
         <v>48</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="30"/>
-    </row>
-    <row r="34" customFormat="1" hidden="1" spans="1:7">
-      <c r="A34" s="14">
+      <c r="B34" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="30"/>
+    </row>
+    <row r="35" customFormat="1" hidden="1" spans="1:7">
+      <c r="A35" s="14">
         <v>49</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="31"/>
-    </row>
-    <row r="35" customFormat="1" ht="27" hidden="1" spans="1:6">
-      <c r="A35" s="4">
+      <c r="B35" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="31"/>
+    </row>
+    <row r="36" customFormat="1" ht="27" hidden="1" spans="1:6">
+      <c r="A36" s="4">
         <v>50</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" customFormat="1" ht="27" hidden="1" spans="1:7">
-      <c r="A36" s="20">
+      <c r="B36" s="19"/>
+      <c r="C36" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" customFormat="1" ht="27" hidden="1" spans="1:7">
+      <c r="A37" s="20">
         <v>10</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" customFormat="1" ht="54" hidden="1" spans="1:7">
-      <c r="A37" s="20">
-        <v>18</v>
-      </c>
       <c r="B37" s="25" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
       <c r="F37" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" customFormat="1" ht="54" hidden="1" spans="1:7">
+      <c r="A38" s="20">
         <v>18</v>
       </c>
-      <c r="G37" s="20"/>
+      <c r="B38" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" ht="27" customHeight="1" spans="1:3">
+      <c r="A39" s="1">
+        <v>11</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" ht="44" customHeight="1" spans="1:3">
+      <c r="A40" s="1">
+        <v>12</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" ht="51" customHeight="1" spans="1:5">
+      <c r="A41" s="1">
+        <v>13</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" ht="35" customHeight="1" spans="1:5">
+      <c r="A42" s="1">
+        <v>14</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" ht="42" customHeight="1" spans="1:3">
+      <c r="A43" s="1">
+        <v>15</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" ht="36" customHeight="1" spans="1:5">
+      <c r="A44" s="1">
+        <v>16</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" ht="51" customHeight="1" spans="1:5">
+      <c r="A45" s="1">
+        <v>17</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" ht="55" customHeight="1" spans="1:4">
+      <c r="A46" s="1">
+        <v>18</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G37">
+  <autoFilter ref="A1:G40">
     <filterColumn colId="5">
       <customFilters>
         <customFilter operator="equal" val="1"/>
@@ -1986,19 +2180,19 @@
     <sortCondition ref="B2:B27"/>
   </sortState>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
       <formula1>"BUG,功能优化,界面优化,需求变更,设计缺陷,性能优化,新需求"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28 B23:B25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29 B24:B26">
       <formula1>"WMS,PDA,车载电脑"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36 B37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B38">
       <formula1>"BUG,新需求,需求变更,功能不符"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F36 F37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37 F38">
       <formula1>"1级,2级,3级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23:D29 E23:E29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D30 E24:E30">
       <formula1>"1,2,3,"</formula1>
     </dataValidation>
   </dataValidations>

--- a/文档/WCS问题列表.xlsx
+++ b/文档/WCS问题列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="22935" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="AGV" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>序号</t>
   </si>
@@ -121,13 +121,32 @@
     <t>车辆界面：获取AGV电量的值，使用的字段获取得到的值，与AGV电量的实时值不同</t>
   </si>
   <si>
+    <t>刷新电量的逻辑取错了值</t>
+  </si>
+  <si>
+    <t>已修改取值</t>
+  </si>
+  <si>
+    <t>解决</t>
+  </si>
+  <si>
     <t>AGV小车在运行时，站点由0变成2，空闲由true变成false,是指任务执行到一半，未执行完成，还是什么意思？</t>
   </si>
   <si>
     <t>任务界面：将定义的任务添加到执行任务中，任务的执行不会按照任务添加的先后顺序进行；且加入相同任务时，相同任务的信息显示一致，却只能执行一次</t>
   </si>
   <si>
+    <t>付工已经修复任务不能顺序执行的问题，待测试</t>
+  </si>
+  <si>
+    <t>待测试</t>
+  </si>
+  <si>
     <t>AGV小车执行任务，去到某一个站点时，小车的启动方向如何控制？且启动那一刻其运动方向能否修改？</t>
+  </si>
+  <si>
+    <t>线路定义的时候配置好线路运行时的启动方向
+调度系统：路径定义-&gt;添加节点：X轴坐标：正向启动：1，反向启动：2</t>
   </si>
   <si>
     <t>功能优化</t>
@@ -259,6 +278,15 @@
   <si>
     <t>在进行预约时，预约日期什么日期都能选。
    应改为：只可以看到能选的那几个日期。比如：设置为可以约7天，就只能看到接下来的7天。</t>
+  </si>
+  <si>
+    <t>若断开网络连接，无法刷新车辆或者任务的信息</t>
+  </si>
+  <si>
+    <t>断开网络后，获取车辆信息的线程无法连接通信，一直处于尝试连接状态，导致后续状态无法更新</t>
+  </si>
+  <si>
+    <t>单独启动一个线程获取设备信息，保存在本地临时变量中，并且记录一个时间字段。刷新线程实时获取本地变量的值，并且数据是最近30秒更新的，如果超过30秒的数据，则认为是旧数据，设备已经断线</t>
   </si>
 </sst>
 </file>
@@ -267,8 +295,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -280,6 +308,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -296,49 +384,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -353,40 +430,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,25 +445,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,126 +479,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -583,55 +659,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,6 +684,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,18 +744,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,18 +757,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,17 +777,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,10 +793,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -777,133 +805,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1323,10 +1351,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1419,26 +1447,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:7">
-      <c r="A4" s="10">
+    <row r="4" s="2" customFormat="1" spans="1:7">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1515,20 +1543,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A8" s="6">
+    <row r="8" s="2" customFormat="1" ht="45" customHeight="1" spans="1:8">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A9" s="6">
@@ -1538,52 +1573,62 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="72" customHeight="1" spans="1:7">
-      <c r="A10" s="6">
+    <row r="10" s="3" customFormat="1" ht="72" customHeight="1" spans="1:8">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A11" s="6">
+      <c r="B10" s="11"/>
+      <c r="C10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="42" customHeight="1" spans="1:8">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" customFormat="1" hidden="1" spans="2:6">
       <c r="B12" s="12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="40.5" hidden="1" spans="1:6">
@@ -1591,13 +1636,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="17">
@@ -1609,13 +1654,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="19">
@@ -1627,10 +1672,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F15" s="19">
         <v>2</v>
@@ -1640,10 +1685,10 @@
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="17"/>
@@ -1652,7 +1697,7 @@
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -1663,17 +1708,17 @@
         <v>15</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="40.5" hidden="1" spans="1:6">
@@ -1681,13 +1726,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="19">
@@ -1699,13 +1744,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="19">
@@ -1718,12 +1763,12 @@
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="26" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="23" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="1" hidden="1" spans="1:6">
@@ -1731,10 +1776,10 @@
         <v>32</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F22" s="19">
         <v>2</v>
@@ -1745,10 +1790,10 @@
         <v>34</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D23" s="25">
         <v>1</v>
@@ -1762,10 +1807,10 @@
         <v>35</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D24" s="19">
         <v>1</v>
@@ -1779,10 +1824,10 @@
         <v>36</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D25" s="19">
         <v>1</v>
@@ -1796,10 +1841,10 @@
         <v>40</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D26" s="25">
         <v>1</v>
@@ -1813,10 +1858,10 @@
         <v>41</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D27" s="25">
         <v>2</v>
@@ -1830,10 +1875,10 @@
         <v>42</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D28" s="25">
         <v>1</v>
@@ -1847,10 +1892,10 @@
         <v>43</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D29" s="25">
         <v>2</v>
@@ -1864,10 +1909,10 @@
         <v>45</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F30" s="19"/>
     </row>
@@ -1876,10 +1921,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F31" s="19"/>
     </row>
@@ -1888,13 +1933,13 @@
         <v>47</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="40.5" hidden="1" spans="1:7">
@@ -1902,15 +1947,15 @@
         <v>48</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="19" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G33" s="30"/>
     </row>
@@ -1919,10 +1964,10 @@
         <v>49</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
@@ -1935,7 +1980,7 @@
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="30" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F35" s="19"/>
     </row>
@@ -1944,10 +1989,10 @@
         <v>10</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
@@ -1961,10 +2006,10 @@
         <v>18</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
@@ -1972,6 +2017,23 @@
         <v>18</v>
       </c>
       <c r="G37" s="20"/>
+    </row>
+    <row r="38" ht="67.5" spans="1:5">
+      <c r="A38" s="1">
+        <v>11</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G37">
